--- a/XLsheet/New Microsoft Excel Worksheet.xlsx
+++ b/XLsheet/New Microsoft Excel Worksheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\Guied\XLsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="names" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr/>
@@ -38,19 +38,34 @@
     <t>bhuvi</t>
   </si>
   <si>
-    <t>16.06.2003</t>
+    <t>16/06/2003</t>
   </si>
   <si>
     <t>sk</t>
   </si>
   <si>
-    <t>12.02.2003</t>
-  </si>
-  <si>
     <t>vicky</t>
   </si>
   <si>
-    <t>13.06.2003</t>
+    <t>16/06/2005</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>15.04.2004</t>
+  </si>
+  <si>
+    <t>vetri</t>
+  </si>
+  <si>
+    <t>18/05/2004</t>
+  </si>
+  <si>
+    <t>vasu</t>
   </si>
 </sst>
 </file>
@@ -80,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +397,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,8 +443,8 @@
       <c r="B3">
         <v>4321</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3" s="1">
+        <v>37814</v>
       </c>
       <c r="D3">
         <v>9443420003</v>
@@ -436,13 +452,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>8765</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1234567891</v>
@@ -455,10 +471,73 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A2">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.42578" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>9987654321</v>
+      </c>
+      <c r="D2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1234567890</v>
+      </c>
+      <c r="D3">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38293</v>
+      </c>
+      <c r="C4">
+        <v>8888811113</v>
+      </c>
+      <c r="D4">
+        <v>5678</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
